--- a/Data for registration Liz.xlsx
+++ b/Data for registration Liz.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FFCDEFE7-04D2-4B79-8BF5-485CC3140C8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEE5EF3D-33C5-42D1-919A-415AD00F4871}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>ncitester2@nih.gov</t>
   </si>
   <si>
-    <t>ncitester@nih.gov</t>
-  </si>
-  <si>
     <t>P@ssw0rd1</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>LastName3</t>
+  </si>
+  <si>
+    <t>ncitester3@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,70 +416,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data for registration Liz.xlsx
+++ b/Data for registration Liz.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEE5EF3D-33C5-42D1-919A-415AD00F4871}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A4049FB2-BE95-4782-B42F-67AC76C61173}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,21 +31,9 @@
     <t>P@ssw0rd1</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
     <t>FirsName1</t>
   </si>
   <si>
@@ -65,6 +53,18 @@
   </si>
   <si>
     <t>ncitester3@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,27 +416,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -450,10 +450,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -467,13 +467,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>

--- a/Data for registration Liz.xlsx
+++ b/Data for registration Liz.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A4049FB2-BE95-4782-B42F-67AC76C61173}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{42317551-D414-47AB-BE26-4E9DC4141932}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data for registration Liz.xlsx
+++ b/Data for registration Liz.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{42317551-D414-47AB-BE26-4E9DC4141932}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{81D30D91-B3E1-4FC6-8110-23704C799331}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>ncitester1@nih.gov</t>
   </si>
@@ -65,24 +65,61 @@
   </si>
   <si>
     <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>FirsName4</t>
+  </si>
+  <si>
+    <t>LastName4</t>
+  </si>
+  <si>
+    <t>FirsName5</t>
+  </si>
+  <si>
+    <t>LastName5</t>
+  </si>
+  <si>
+    <t>FirsName6</t>
+  </si>
+  <si>
+    <t>LastName6</t>
+  </si>
+  <si>
+    <t>FirsName7</t>
+  </si>
+  <si>
+    <t>LastName7</t>
+  </si>
+  <si>
+    <t>FirsName8</t>
+  </si>
+  <si>
+    <t>LastName8</t>
+  </si>
+  <si>
+    <t>ncitester4@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester5@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester6@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester7@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester8@nih.gov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,21 +142,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,10 +474,10 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -458,7 +491,7 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -475,20 +508,100 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{28FBBD5C-9685-4036-8B99-82533E39A2B3}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{9857AF86-390C-4CB7-BDF1-9270BBC7E24A}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{A6D4889D-FFCF-49E8-9AAE-6A5B3D449B71}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>